--- a/Excel/formdata.xlsx
+++ b/Excel/formdata.xlsx
@@ -2,49 +2,42 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c54e76247cbc6949/Documenten/GitHub/Event/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFC9F24B-5A9E-41AC-A8F2-237F61D1F2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_75713EE6932DB1248F750348446449AB72F58BDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64A904D5-5819-4933-B400-DC9378550ECD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{07965C79-7620-40CE-9F8C-251861462296}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Naam </t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
     <t>Personen</t>
   </si>
   <si>
-    <t>Email</t>
+    <t>alexander</t>
+  </si>
+  <si>
+    <t>alexanderbultynck@gmail.com</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -415,16 +408,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBE61F8-2CC9-4A60-834C-5E5BCB4FDFC0}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -433,10 +427,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/formdata.xlsx
+++ b/Excel/formdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c54e76247cbc6949/Documenten/GitHub/Event/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_75713EE6932DB1248F750348446449AB72F58BDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64A904D5-5819-4933-B400-DC9378550ECD}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_75713EE6932DB1940F52B7423F2276D172F588DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB4C3C37-12A5-4224-9985-CB5F4D90CE16}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,8 +73,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -412,14 +414,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -429,7 +431,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -440,7 +442,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Excel/formdata.xlsx
+++ b/Excel/formdata.xlsx
@@ -1,61 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c54e76247cbc6949/Documenten/GitHub/Event/Excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_75713EE6932DB1940F52B7423F2276D172F588DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB4C3C37-12A5-4224-9985-CB5F4D90CE16}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">Naam </t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Personen</t>
-  </si>
-  <si>
-    <t>alexander</t>
-  </si>
-  <si>
-    <t>alexanderbultynck@gmail.com</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -74,23 +46,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -410,40 +441,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
+    <col width="17.77734375" customWidth="1" style="2" min="1" max="1"/>
+    <col width="28.109375" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="12.109375" customWidth="1" style="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Naam </t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Personen</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>alexander</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>alexanderbultynck@gmail.com</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>alessio</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>alessio.depreytere@hotmail.com</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gbnvncbv</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>hdjkaa@gjlsakjlak</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>gbnvncbv</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>hdjkaa@gjlsakjlak</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dsgsdgsd</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>gfdsgdg@fdsgsddg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dsgsdgsd</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>gfdsgdg@fdsgsddg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Excel/formdata.xlsx
+++ b/Excel/formdata.xlsx
@@ -1,33 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c54e76247cbc6949/Documenten/GitHub/Event/Excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_75713EE6932DB14488181FDBFE2777DE56A98C7F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E268854-A6C4-43E2-9F87-C13D9F83A8F3}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">Naam </t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Personen</t>
+  </si>
+  <si>
+    <t>alexander</t>
+  </si>
+  <si>
+    <t>alexanderbultynck@gmail.com</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>alessio</t>
+  </si>
+  <si>
+    <t>alessio.depreytere@hotmail.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,83 +79,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -441,142 +415,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="17.77734375" customWidth="1" style="2" min="1" max="1"/>
-    <col width="28.109375" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="12.109375" customWidth="1" style="1" min="3" max="3"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Naam </t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Personen</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>alexander</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>alexanderbultynck@gmail.com</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>alessio</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>alessio.depreytere@hotmail.com</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>gbnvncbv</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>hdjkaa@gjlsakjlak</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>gbnvncbv</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>hdjkaa@gjlsakjlak</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>dsgsdgsd</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>gfdsgdg@fdsgsddg</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>dsgsdgsd</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>gfdsgdg@fdsgsddg</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/formdata.xlsx
+++ b/Excel/formdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c54e76247cbc6949/Documenten/GitHub/Event/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessio\Documents\GitHub\Event\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_75713EE6932DB14488181FDBFE2777DE56A98C7F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E268854-A6C4-43E2-9F87-C13D9F83A8F3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9282BC1-6037-43CD-8828-23FDA91A8FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">Naam </t>
   </si>
@@ -29,21 +29,6 @@
   </si>
   <si>
     <t>Personen</t>
-  </si>
-  <si>
-    <t>alexander</t>
-  </si>
-  <si>
-    <t>alexanderbultynck@gmail.com</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>alessio</t>
-  </si>
-  <si>
-    <t>alessio.depreytere@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -416,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,42 +425,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C8"/>
+      <c r="C3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/formdata.xlsx
+++ b/Excel/formdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessio\Documents\GitHub\Event\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9282BC1-6037-43CD-8828-23FDA91A8FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E2B8FB-BFC7-402A-9099-4BF4CE64C4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,35 +425,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C9"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C10"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C11"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C12"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17"/>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/formdata.xlsx
+++ b/Excel/formdata.xlsx
@@ -1,61 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c54e76247cbc6949/Documenten/GitHub/Event/Excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59C097552A500E7DF9AAF04A1510344D078E68" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D9DA7B8-F9BE-4169-B445-3FAE22C0462D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>alexander</t>
-  </si>
-  <si>
-    <t>a@a</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Personen</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -74,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -376,35 +407,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Personen</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>alexander</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>a@a</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>alessio</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>zz@zf</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>yessss</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>alessio.depreytere@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Excel/formdata.xlsx
+++ b/Excel/formdata.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -488,6 +488,23 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>a@sw</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel/formdata.xlsx
+++ b/Excel/formdata.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -505,6 +505,40 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>alessio</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>alessio.depreytere@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>alessio</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>zjkfz@zdjklz</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>45454</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel/formdata.xlsx
+++ b/Excel/formdata.xlsx
@@ -376,7 +376,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="23.862142857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>

--- a/Excel/formdata.xlsx
+++ b/Excel/formdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -22,7 +22,22 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Voertuigen</t>
+  </si>
+  <si>
     <t>Personen</t>
+  </si>
+  <si>
+    <t>Adres</t>
+  </si>
+  <si>
+    <t>GSM</t>
+  </si>
+  <si>
+    <t>Merk voertuig</t>
+  </si>
+  <si>
+    <t>Nummerplaat</t>
   </si>
 </sst>
 </file>
@@ -369,15 +384,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="22.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="34.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="2" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -390,6 +410,21 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/formdata.xlsx
+++ b/Excel/formdata.xlsx
@@ -1,62 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Voertuigen</t>
-  </si>
-  <si>
-    <t>Personen</t>
-  </si>
-  <si>
-    <t>Adres</t>
-  </si>
-  <si>
-    <t>GSM</t>
-  </si>
-  <si>
-    <t>Merk voertuig</t>
-  </si>
-  <si>
-    <t>Nummerplaat</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,24 +46,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -380,50 +413,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="2" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="34.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="2" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col width="22.14785714285714" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="29.71928571428571" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col width="34.14785714285715" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="6" max="6"/>
+    <col width="25.005" bestFit="1" customWidth="1" style="2" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Voertuigen</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Personen</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Adres</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>GSM</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Merk voertuig</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Nummerplaat</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>alex</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>a@a</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>molensfkldsj</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>audi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>dfsaf</t>
+        </is>
       </c>
     </row>
   </sheetData>
